--- a/xlsx/country_comparison/support_positive.xlsx
+++ b/xlsx/country_comparison/support_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -29,16 +29,13 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global climate scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National redistribution scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support for C+G+R</t>
+    <t xml:space="preserve">Global climate scheme (GCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National redistribution scheme (NR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal exit + GCS + NR</t>
   </si>
   <si>
     <t xml:space="preserve">Global tax on millionaires</t>
@@ -71,7 +68,7 @@
     <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
   </si>
   <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU)</t>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion for each human</t>
   </si>
 </sst>
 </file>
@@ -419,288 +416,243 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.626865671641791</v>
+        <v>0.76056338028169</v>
       </c>
       <c r="C2" t="n">
-        <v>0.709677419354839</v>
+        <v>0.723756906077348</v>
       </c>
       <c r="D2" t="n">
-        <v>0.793103448275862</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="E2" t="n">
-        <v>0.647058823529412</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.494186046511628</v>
+        <v>0.760869565217391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.671641791044776</v>
+        <v>0.697183098591549</v>
       </c>
       <c r="C3" t="n">
-        <v>0.709677419354839</v>
+        <v>0.651933701657459</v>
       </c>
       <c r="D3" t="n">
-        <v>0.827586206896552</v>
+        <v>0.778688524590164</v>
       </c>
       <c r="E3" t="n">
-        <v>0.691176470588235</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.529069767441861</v>
+        <v>0.695652173913043</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.597014925373134</v>
+        <v>0.78169014084507</v>
       </c>
       <c r="C4" t="n">
-        <v>0.645161290322581</v>
+        <v>0.69060773480663</v>
       </c>
       <c r="D4" t="n">
-        <v>0.689655172413793</v>
+        <v>0.844262295081967</v>
       </c>
       <c r="E4" t="n">
-        <v>0.632352941176471</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.546511627906977</v>
+        <v>0.739130434782609</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.666666666666667</v>
+        <v>0.72</v>
       </c>
       <c r="C5" t="n">
-        <v>0.529411764705882</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="D5" t="n">
-        <v>0.769230769230769</v>
+        <v>0.703125</v>
       </c>
       <c r="E5" t="n">
-        <v>0.607142857142857</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.636363636363636</v>
+        <v>0.633333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.761904761904762</v>
+        <v>0.76</v>
       </c>
       <c r="C6" t="n">
-        <v>0.588235294117647</v>
+        <v>0.771739130434783</v>
       </c>
       <c r="D6" t="n">
-        <v>0.769230769230769</v>
+        <v>0.734375</v>
       </c>
       <c r="E6" t="n">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.613636363636364</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.522388059701492</v>
+        <v>0.514084507042254</v>
       </c>
       <c r="C7" t="n">
-        <v>0.67741935483871</v>
+        <v>0.49171270718232</v>
       </c>
       <c r="D7" t="n">
-        <v>0.689655172413793</v>
+        <v>0.590163934426229</v>
       </c>
       <c r="E7" t="n">
-        <v>0.514705882352941</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.441860465116279</v>
+        <v>0.41304347826087</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.492537313432836</v>
+        <v>0.542253521126761</v>
       </c>
       <c r="C8" t="n">
-        <v>0.645161290322581</v>
+        <v>0.646408839779006</v>
       </c>
       <c r="D8" t="n">
-        <v>0.758620689655172</v>
+        <v>0.655737704918033</v>
       </c>
       <c r="E8" t="n">
-        <v>0.573529411764706</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.593023255813954</v>
+        <v>0.478260869565217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.522388059701492</v>
+        <v>0.528169014084507</v>
       </c>
       <c r="C9" t="n">
-        <v>0.483870967741935</v>
+        <v>0.569060773480663</v>
       </c>
       <c r="D9" t="n">
-        <v>0.586206896551724</v>
+        <v>0.565573770491803</v>
       </c>
       <c r="E9" t="n">
-        <v>0.441176470588235</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.465116279069767</v>
+        <v>0.41304347826087</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>0.298507462686567</v>
+        <v>0.352112676056338</v>
       </c>
       <c r="C10" t="n">
-        <v>0.290322580645161</v>
+        <v>0.281767955801105</v>
       </c>
       <c r="D10" t="n">
-        <v>0.413793103448276</v>
+        <v>0.368852459016393</v>
       </c>
       <c r="E10" t="n">
-        <v>0.308823529411765</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.255813953488372</v>
+        <v>0.41304347826087</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>0.432835820895522</v>
+        <v>0.422535211267606</v>
       </c>
       <c r="C11" t="n">
-        <v>0.290322580645161</v>
+        <v>0.397790055248619</v>
       </c>
       <c r="D11" t="n">
-        <v>0.482758620689655</v>
+        <v>0.442622950819672</v>
       </c>
       <c r="E11" t="n">
-        <v>0.411764705882353</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.337209302325581</v>
+        <v>0.369565217391304</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>0.26865671641791</v>
+        <v>0.394366197183099</v>
       </c>
       <c r="C12" t="n">
-        <v>0.612903225806452</v>
+        <v>0.441988950276243</v>
       </c>
       <c r="D12" t="n">
-        <v>0.551724137931034</v>
+        <v>0.483606557377049</v>
       </c>
       <c r="E12" t="n">
-        <v>0.367647058823529</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.372093023255814</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>0.552238805970149</v>
+        <v>0.549295774647887</v>
       </c>
       <c r="C13" t="n">
-        <v>0.419354838709677</v>
+        <v>0.541436464088398</v>
       </c>
       <c r="D13" t="n">
-        <v>0.689655172413793</v>
+        <v>0.557377049180328</v>
       </c>
       <c r="E13" t="n">
-        <v>0.470588235294118</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.430232558139535</v>
+        <v>0.456521739130435</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>0.686567164179104</v>
+        <v>0.591549295774648</v>
       </c>
       <c r="C14" t="n">
-        <v>0.741935483870968</v>
+        <v>0.56353591160221</v>
       </c>
       <c r="D14" t="n">
-        <v>0.655172413793103</v>
+        <v>0.688524590163934</v>
       </c>
       <c r="E14" t="n">
-        <v>0.676470588235294</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.441860465116279</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>0.388059701492537</v>
+        <v>0.415492957746479</v>
       </c>
       <c r="C15" t="n">
-        <v>0.451612903225806</v>
+        <v>0.430939226519337</v>
       </c>
       <c r="D15" t="n">
-        <v>0.448275862068966</v>
+        <v>0.434426229508197</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.255813953488372</v>
+        <v>0.369565217391304</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_positive.xlsx
+++ b/xlsx/country_comparison/support_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Global climate scheme (GCS)</t>
@@ -416,243 +419,284 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.76056338028169</v>
+        <v>0.787096774193548</v>
       </c>
       <c r="C2" t="n">
-        <v>0.723756906077348</v>
+        <v>0.71334214002642</v>
       </c>
       <c r="D2" t="n">
-        <v>0.819672131147541</v>
+        <v>0.821362799263352</v>
       </c>
       <c r="E2" t="n">
-        <v>0.760869565217391</v>
+        <v>0.725155279503106</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.53424139235717</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.697183098591549</v>
+        <v>0.75</v>
       </c>
       <c r="C3" t="n">
-        <v>0.651933701657459</v>
+        <v>0.667107001321004</v>
       </c>
       <c r="D3" t="n">
-        <v>0.778688524590164</v>
+        <v>0.801104972375691</v>
       </c>
       <c r="E3" t="n">
-        <v>0.695652173913043</v>
+        <v>0.740683229813665</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.552402572833901</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.78169014084507</v>
+        <v>0.783870967741935</v>
       </c>
       <c r="C4" t="n">
-        <v>0.69060773480663</v>
+        <v>0.690885072655218</v>
       </c>
       <c r="D4" t="n">
-        <v>0.844262295081967</v>
+        <v>0.815837937384899</v>
       </c>
       <c r="E4" t="n">
-        <v>0.739130434782609</v>
+        <v>0.680124223602484</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.52099886492622</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.72</v>
+        <v>0.67741935483871</v>
       </c>
       <c r="C5" t="n">
-        <v>0.673913043478261</v>
+        <v>0.7109375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.703125</v>
+        <v>0.773584905660377</v>
       </c>
       <c r="E5" t="n">
-        <v>0.633333333333333</v>
-      </c>
+        <v>0.712933753943218</v>
+      </c>
+      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.76</v>
+        <v>0.680645161290323</v>
       </c>
       <c r="C6" t="n">
-        <v>0.771739130434783</v>
+        <v>0.7734375</v>
       </c>
       <c r="D6" t="n">
-        <v>0.734375</v>
+        <v>0.784905660377359</v>
       </c>
       <c r="E6" t="n">
-        <v>0.666666666666667</v>
-      </c>
+        <v>0.779179810725552</v>
+      </c>
+      <c r="F6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.514084507042254</v>
+        <v>0.508064516129032</v>
       </c>
       <c r="C7" t="n">
-        <v>0.49171270718232</v>
+        <v>0.513870541611625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.590163934426229</v>
+        <v>0.642725598526704</v>
       </c>
       <c r="E7" t="n">
-        <v>0.41304347826087</v>
+        <v>0.498447204968944</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.410896708286039</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.542253521126761</v>
+        <v>0.6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.646408839779006</v>
+        <v>0.652575957727873</v>
       </c>
       <c r="D8" t="n">
-        <v>0.655737704918033</v>
+        <v>0.692449355432781</v>
       </c>
       <c r="E8" t="n">
-        <v>0.478260869565217</v>
+        <v>0.647515527950311</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.52894438138479</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.528169014084507</v>
+        <v>0.541935483870968</v>
       </c>
       <c r="C9" t="n">
-        <v>0.569060773480663</v>
+        <v>0.597093791281374</v>
       </c>
       <c r="D9" t="n">
-        <v>0.565573770491803</v>
+        <v>0.622467771639042</v>
       </c>
       <c r="E9" t="n">
-        <v>0.41304347826087</v>
+        <v>0.545031055900621</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.445327279606508</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.352112676056338</v>
+        <v>0.359677419354839</v>
       </c>
       <c r="C10" t="n">
-        <v>0.281767955801105</v>
+        <v>0.298546895640687</v>
       </c>
       <c r="D10" t="n">
-        <v>0.368852459016393</v>
+        <v>0.451197053406998</v>
       </c>
       <c r="E10" t="n">
-        <v>0.41304347826087</v>
+        <v>0.402173913043478</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.304578130911843</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.422535211267606</v>
+        <v>0.435483870967742</v>
       </c>
       <c r="C11" t="n">
-        <v>0.397790055248619</v>
+        <v>0.416116248348745</v>
       </c>
       <c r="D11" t="n">
-        <v>0.442622950819672</v>
+        <v>0.532228360957643</v>
       </c>
       <c r="E11" t="n">
-        <v>0.369565217391304</v>
+        <v>0.414596273291925</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.335981838819523</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.394366197183099</v>
+        <v>0.401612903225806</v>
       </c>
       <c r="C12" t="n">
-        <v>0.441988950276243</v>
+        <v>0.498018494055482</v>
       </c>
       <c r="D12" t="n">
-        <v>0.483606557377049</v>
+        <v>0.530386740331492</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.386681800983731</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.549295774647887</v>
+        <v>0.543548387096774</v>
       </c>
       <c r="C13" t="n">
-        <v>0.541436464088398</v>
+        <v>0.535006605019815</v>
       </c>
       <c r="D13" t="n">
-        <v>0.557377049180328</v>
+        <v>0.616942909760589</v>
       </c>
       <c r="E13" t="n">
-        <v>0.456521739130435</v>
+        <v>0.503105590062112</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.416193719258418</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.591549295774648</v>
+        <v>0.72741935483871</v>
       </c>
       <c r="C14" t="n">
-        <v>0.56353591160221</v>
+        <v>0.684280052840158</v>
       </c>
       <c r="D14" t="n">
-        <v>0.688524590163934</v>
+        <v>0.74585635359116</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5</v>
+        <v>0.698757763975155</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.437381763147938</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.415492957746479</v>
+        <v>0.401612903225806</v>
       </c>
       <c r="C15" t="n">
-        <v>0.430939226519337</v>
+        <v>0.467635402906209</v>
       </c>
       <c r="D15" t="n">
-        <v>0.434426229508197</v>
+        <v>0.441988950276243</v>
       </c>
       <c r="E15" t="n">
-        <v>0.369565217391304</v>
+        <v>0.498447204968944</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.342792281498297</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_positive.xlsx
+++ b/xlsx/country_comparison/support_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -29,16 +35,13 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
     <t xml:space="preserve">Global climate scheme (GCS)</t>
   </si>
   <si>
     <t xml:space="preserve">National redistribution scheme (NR)</t>
   </si>
   <si>
-    <t xml:space="preserve">Coal exit + GCS + NR</t>
+    <t xml:space="preserve">National climate policy + GCS + NR</t>
   </si>
   <si>
     <t xml:space="preserve">Global tax on millionaires</t>
@@ -71,7 +74,7 @@
     <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
   </si>
   <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion for each human</t>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU) for each human</t>
   </si>
 </sst>
 </file>
@@ -422,281 +425,326 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.787096774193548</v>
+        <v>0.533050523673449</v>
       </c>
       <c r="C2" t="n">
-        <v>0.71334214002642</v>
+        <v>0.752698343735098</v>
       </c>
       <c r="D2" t="n">
-        <v>0.821362799263352</v>
+        <v>0.805398319468679</v>
       </c>
       <c r="E2" t="n">
-        <v>0.725155279503106</v>
+        <v>0.708750845625959</v>
       </c>
       <c r="F2" t="n">
-        <v>0.53424139235717</v>
+        <v>0.813439832560037</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.745700372884844</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.75</v>
+        <v>0.543655064678521</v>
       </c>
       <c r="C3" t="n">
-        <v>0.667107001321004</v>
+        <v>0.724413635192711</v>
       </c>
       <c r="D3" t="n">
-        <v>0.801104972375691</v>
+        <v>0.767123422555058</v>
       </c>
       <c r="E3" t="n">
-        <v>0.740683229813665</v>
+        <v>0.661684892722312</v>
       </c>
       <c r="F3" t="n">
-        <v>0.552402572833901</v>
+        <v>0.80196078442816</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.7516505366876</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.783870967741935</v>
+        <v>0.514239052709087</v>
       </c>
       <c r="C4" t="n">
-        <v>0.690885072655218</v>
+        <v>0.731994659198824</v>
       </c>
       <c r="D4" t="n">
-        <v>0.815837937384899</v>
+        <v>0.798678512799643</v>
       </c>
       <c r="E4" t="n">
-        <v>0.680124223602484</v>
+        <v>0.685695391404446</v>
       </c>
       <c r="F4" t="n">
-        <v>0.52099886492622</v>
+        <v>0.80856978466422</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.706843610538689</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.67741935483871</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B5"/>
       <c r="C5" t="n">
-        <v>0.7109375</v>
+        <v>0.718496997034831</v>
       </c>
       <c r="D5" t="n">
-        <v>0.773584905660377</v>
+        <v>0.709146740152622</v>
       </c>
       <c r="E5" t="n">
-        <v>0.712933753943218</v>
-      </c>
-      <c r="F5"/>
+        <v>0.730078017700105</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.787203149735657</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.723428003564671</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.680645161290323</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B6"/>
       <c r="C6" t="n">
-        <v>0.7734375</v>
+        <v>0.75563641573109</v>
       </c>
       <c r="D6" t="n">
-        <v>0.784905660377359</v>
+        <v>0.691101649484206</v>
       </c>
       <c r="E6" t="n">
-        <v>0.779179810725552</v>
-      </c>
-      <c r="F6"/>
+        <v>0.788808616062571</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.797854202406686</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.782091916049645</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.508064516129032</v>
+        <v>0.402771008743824</v>
       </c>
       <c r="C7" t="n">
-        <v>0.513870541611625</v>
+        <v>0.526655676616393</v>
       </c>
       <c r="D7" t="n">
-        <v>0.642725598526704</v>
+        <v>0.518253406992272</v>
       </c>
       <c r="E7" t="n">
-        <v>0.498447204968944</v>
+        <v>0.514925574114415</v>
       </c>
       <c r="F7" t="n">
-        <v>0.410896708286039</v>
+        <v>0.618868191878849</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.52004396471253</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6</v>
+        <v>0.520899657426139</v>
       </c>
       <c r="C8" t="n">
-        <v>0.652575957727873</v>
+        <v>0.641404129052997</v>
       </c>
       <c r="D8" t="n">
-        <v>0.692449355432781</v>
+        <v>0.622832411177658</v>
       </c>
       <c r="E8" t="n">
-        <v>0.647515527950311</v>
+        <v>0.645122272457726</v>
       </c>
       <c r="F8" t="n">
-        <v>0.52894438138479</v>
+        <v>0.69674075284452</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.635507125525964</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.541935483870968</v>
+        <v>0.437401671299102</v>
       </c>
       <c r="C9" t="n">
-        <v>0.597093791281374</v>
+        <v>0.577421178741801</v>
       </c>
       <c r="D9" t="n">
-        <v>0.622467771639042</v>
+        <v>0.566742781847626</v>
       </c>
       <c r="E9" t="n">
-        <v>0.545031055900621</v>
+        <v>0.598913540831578</v>
       </c>
       <c r="F9" t="n">
-        <v>0.445327279606508</v>
+        <v>0.613758646343564</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.555669227465416</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.359677419354839</v>
+        <v>0.300426435687128</v>
       </c>
       <c r="C10" t="n">
-        <v>0.298546895640687</v>
+        <v>0.359554624039361</v>
       </c>
       <c r="D10" t="n">
-        <v>0.451197053406998</v>
+        <v>0.364276347834727</v>
       </c>
       <c r="E10" t="n">
-        <v>0.402173913043478</v>
+        <v>0.294609397195582</v>
       </c>
       <c r="F10" t="n">
-        <v>0.304578130911843</v>
+        <v>0.448522698461768</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.413487865298268</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.435483870967742</v>
+        <v>0.339647325616467</v>
       </c>
       <c r="C11" t="n">
-        <v>0.416116248348745</v>
+        <v>0.43083865601342</v>
       </c>
       <c r="D11" t="n">
-        <v>0.532228360957643</v>
+        <v>0.443544105892623</v>
       </c>
       <c r="E11" t="n">
-        <v>0.414596273291925</v>
+        <v>0.399511081480874</v>
       </c>
       <c r="F11" t="n">
-        <v>0.335981838819523</v>
+        <v>0.512313110412162</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.391741208441003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.401612903225806</v>
+        <v>0.388252590160263</v>
       </c>
       <c r="C12" t="n">
-        <v>0.498018494055482</v>
+        <v>0.493240038253356</v>
       </c>
       <c r="D12" t="n">
-        <v>0.530386740331492</v>
+        <v>0.3980247794855</v>
       </c>
       <c r="E12" t="n">
-        <v>0.571428571428571</v>
+        <v>0.515138169012467</v>
       </c>
       <c r="F12" t="n">
-        <v>0.386681800983731</v>
+        <v>0.51294832481047</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.546561652529891</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.543548387096774</v>
+        <v>0.412368426912841</v>
       </c>
       <c r="C13" t="n">
-        <v>0.535006605019815</v>
+        <v>0.538979949458463</v>
       </c>
       <c r="D13" t="n">
-        <v>0.616942909760589</v>
+        <v>0.552053393922151</v>
       </c>
       <c r="E13" t="n">
-        <v>0.503105590062112</v>
+        <v>0.523732902662933</v>
       </c>
       <c r="F13" t="n">
-        <v>0.416193719258418</v>
+        <v>0.607217366197795</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.506258691171157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0.72741935483871</v>
+        <v>0.435732039712661</v>
       </c>
       <c r="C14" t="n">
-        <v>0.684280052840158</v>
+        <v>0.706033770881491</v>
       </c>
       <c r="D14" t="n">
-        <v>0.74585635359116</v>
+        <v>0.744379367256626</v>
       </c>
       <c r="E14" t="n">
-        <v>0.698757763975155</v>
+        <v>0.691867086834504</v>
       </c>
       <c r="F14" t="n">
-        <v>0.437381763147938</v>
+        <v>0.727578773344445</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.63716697729758</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0.401612903225806</v>
+        <v>0.338298350077793</v>
       </c>
       <c r="C15" t="n">
-        <v>0.467635402906209</v>
+        <v>0.454729860545134</v>
       </c>
       <c r="D15" t="n">
-        <v>0.441988950276243</v>
+        <v>0.411131624780866</v>
       </c>
       <c r="E15" t="n">
-        <v>0.498447204968944</v>
+        <v>0.478902466337572</v>
       </c>
       <c r="F15" t="n">
-        <v>0.342792281498297</v>
+        <v>0.452094616253507</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.497251851173417</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_positive.xlsx
+++ b/xlsx/country_comparison/support_positive.xlsx
@@ -434,22 +434,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.533050523673449</v>
+        <v>0.541940293813814</v>
       </c>
       <c r="C2" t="n">
-        <v>0.752698343735098</v>
+        <v>0.757124442969868</v>
       </c>
       <c r="D2" t="n">
-        <v>0.805398319468679</v>
+        <v>0.80287801319803</v>
       </c>
       <c r="E2" t="n">
-        <v>0.708750845625959</v>
+        <v>0.71266432814077</v>
       </c>
       <c r="F2" t="n">
-        <v>0.813439832560037</v>
+        <v>0.814181202537546</v>
       </c>
       <c r="G2" t="n">
-        <v>0.745700372884844</v>
+        <v>0.741093867939918</v>
       </c>
     </row>
     <row r="3">
@@ -457,22 +457,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.543655064678521</v>
+        <v>0.558336087713609</v>
       </c>
       <c r="C3" t="n">
-        <v>0.724413635192711</v>
+        <v>0.72449033939416</v>
       </c>
       <c r="D3" t="n">
-        <v>0.767123422555058</v>
+        <v>0.768838719029281</v>
       </c>
       <c r="E3" t="n">
-        <v>0.661684892722312</v>
+        <v>0.658433214287983</v>
       </c>
       <c r="F3" t="n">
-        <v>0.80196078442816</v>
+        <v>0.79892524528987</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7516505366876</v>
+        <v>0.749406163217863</v>
       </c>
     </row>
     <row r="4">
@@ -480,64 +480,68 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.514239052709087</v>
+        <v>0.524831536121547</v>
       </c>
       <c r="C4" t="n">
-        <v>0.731994659198824</v>
+        <v>0.734354280876327</v>
       </c>
       <c r="D4" t="n">
-        <v>0.798678512799643</v>
+        <v>0.78880716153296</v>
       </c>
       <c r="E4" t="n">
-        <v>0.685695391404446</v>
+        <v>0.690508694213523</v>
       </c>
       <c r="F4" t="n">
-        <v>0.80856978466422</v>
+        <v>0.808274946990806</v>
       </c>
       <c r="G4" t="n">
-        <v>0.706843610538689</v>
+        <v>0.70345279498556</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C5" t="n">
-        <v>0.718496997034831</v>
+        <v>0.715961277732328</v>
       </c>
       <c r="D5" t="n">
-        <v>0.709146740152622</v>
+        <v>0.694482574423901</v>
       </c>
       <c r="E5" t="n">
-        <v>0.730078017700105</v>
+        <v>0.723279218613323</v>
       </c>
       <c r="F5" t="n">
-        <v>0.787203149735657</v>
+        <v>0.785851391065488</v>
       </c>
       <c r="G5" t="n">
-        <v>0.723428003564671</v>
+        <v>0.709001834379532</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C6" t="n">
-        <v>0.75563641573109</v>
+        <v>0.759150920107372</v>
       </c>
       <c r="D6" t="n">
-        <v>0.691101649484206</v>
+        <v>0.697663108722282</v>
       </c>
       <c r="E6" t="n">
-        <v>0.788808616062571</v>
+        <v>0.785647442557876</v>
       </c>
       <c r="F6" t="n">
-        <v>0.797854202406686</v>
+        <v>0.796933073124514</v>
       </c>
       <c r="G6" t="n">
-        <v>0.782091916049645</v>
+        <v>0.774027992401229</v>
       </c>
     </row>
     <row r="7">
@@ -545,22 +549,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.402771008743824</v>
+        <v>0.409060764527737</v>
       </c>
       <c r="C7" t="n">
-        <v>0.526655676616393</v>
+        <v>0.535201948047178</v>
       </c>
       <c r="D7" t="n">
-        <v>0.518253406992272</v>
+        <v>0.522159530315475</v>
       </c>
       <c r="E7" t="n">
-        <v>0.514925574114415</v>
+        <v>0.528762735872641</v>
       </c>
       <c r="F7" t="n">
-        <v>0.618868191878849</v>
+        <v>0.617643301268689</v>
       </c>
       <c r="G7" t="n">
-        <v>0.52004396471253</v>
+        <v>0.510176392524896</v>
       </c>
     </row>
     <row r="8">
@@ -568,22 +572,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.520899657426139</v>
+        <v>0.530786230623006</v>
       </c>
       <c r="C8" t="n">
-        <v>0.641404129052997</v>
+        <v>0.646986940154306</v>
       </c>
       <c r="D8" t="n">
-        <v>0.622832411177658</v>
+        <v>0.617674491099532</v>
       </c>
       <c r="E8" t="n">
-        <v>0.645122272457726</v>
+        <v>0.661975627869348</v>
       </c>
       <c r="F8" t="n">
-        <v>0.69674075284452</v>
+        <v>0.703166680556518</v>
       </c>
       <c r="G8" t="n">
-        <v>0.635507125525964</v>
+        <v>0.62419401179039</v>
       </c>
     </row>
     <row r="9">
@@ -591,22 +595,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.437401671299102</v>
+        <v>0.450078889275541</v>
       </c>
       <c r="C9" t="n">
-        <v>0.577421178741801</v>
+        <v>0.578816210447086</v>
       </c>
       <c r="D9" t="n">
-        <v>0.566742781847626</v>
+        <v>0.554897120617185</v>
       </c>
       <c r="E9" t="n">
-        <v>0.598913540831578</v>
+        <v>0.597865813650494</v>
       </c>
       <c r="F9" t="n">
-        <v>0.613758646343564</v>
+        <v>0.619412843914247</v>
       </c>
       <c r="G9" t="n">
-        <v>0.555669227465416</v>
+        <v>0.540918245199244</v>
       </c>
     </row>
     <row r="10">
@@ -614,22 +618,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.300426435687128</v>
+        <v>0.308263974627297</v>
       </c>
       <c r="C10" t="n">
-        <v>0.359554624039361</v>
+        <v>0.367753929241678</v>
       </c>
       <c r="D10" t="n">
-        <v>0.364276347834727</v>
+        <v>0.363070549590102</v>
       </c>
       <c r="E10" t="n">
-        <v>0.294609397195582</v>
+        <v>0.298636471394347</v>
       </c>
       <c r="F10" t="n">
-        <v>0.448522698461768</v>
+        <v>0.450760261067972</v>
       </c>
       <c r="G10" t="n">
-        <v>0.413487865298268</v>
+        <v>0.404827258873017</v>
       </c>
     </row>
     <row r="11">
@@ -637,22 +641,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.339647325616467</v>
+        <v>0.343995473719487</v>
       </c>
       <c r="C11" t="n">
-        <v>0.43083865601342</v>
+        <v>0.44529348181459</v>
       </c>
       <c r="D11" t="n">
-        <v>0.443544105892623</v>
+        <v>0.436195016223653</v>
       </c>
       <c r="E11" t="n">
-        <v>0.399511081480874</v>
+        <v>0.428387525176064</v>
       </c>
       <c r="F11" t="n">
-        <v>0.512313110412162</v>
+        <v>0.519693039047335</v>
       </c>
       <c r="G11" t="n">
-        <v>0.391741208441003</v>
+        <v>0.4322000098325</v>
       </c>
     </row>
     <row r="12">
@@ -660,22 +664,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.388252590160263</v>
+        <v>0.39042778352406</v>
       </c>
       <c r="C12" t="n">
-        <v>0.493240038253356</v>
+        <v>0.492288437057659</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3980247794855</v>
+        <v>0.386250992315757</v>
       </c>
       <c r="E12" t="n">
-        <v>0.515138169012467</v>
+        <v>0.512608538780923</v>
       </c>
       <c r="F12" t="n">
-        <v>0.51294832481047</v>
+        <v>0.512559236702742</v>
       </c>
       <c r="G12" t="n">
-        <v>0.546561652529891</v>
+        <v>0.540724036944967</v>
       </c>
     </row>
     <row r="13">
@@ -683,22 +687,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.412368426912841</v>
+        <v>0.415328882814305</v>
       </c>
       <c r="C13" t="n">
-        <v>0.538979949458463</v>
+        <v>0.550354209283569</v>
       </c>
       <c r="D13" t="n">
-        <v>0.552053393922151</v>
+        <v>0.541748120019898</v>
       </c>
       <c r="E13" t="n">
-        <v>0.523732902662933</v>
+        <v>0.542108788452825</v>
       </c>
       <c r="F13" t="n">
-        <v>0.607217366197795</v>
+        <v>0.609268371100752</v>
       </c>
       <c r="G13" t="n">
-        <v>0.506258691171157</v>
+        <v>0.531662747059825</v>
       </c>
     </row>
     <row r="14">
@@ -706,22 +710,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0.435732039712661</v>
+        <v>0.441433541510217</v>
       </c>
       <c r="C14" t="n">
-        <v>0.706033770881491</v>
+        <v>0.701089412680031</v>
       </c>
       <c r="D14" t="n">
-        <v>0.744379367256626</v>
+        <v>0.730207595707015</v>
       </c>
       <c r="E14" t="n">
-        <v>0.691867086834504</v>
+        <v>0.702460186820164</v>
       </c>
       <c r="F14" t="n">
-        <v>0.727578773344445</v>
+        <v>0.723293610150671</v>
       </c>
       <c r="G14" t="n">
-        <v>0.63716697729758</v>
+        <v>0.649070260943073</v>
       </c>
     </row>
     <row r="15">
@@ -729,22 +733,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0.338298350077793</v>
+        <v>0.335805912734162</v>
       </c>
       <c r="C15" t="n">
-        <v>0.454729860545134</v>
+        <v>0.45625455264978</v>
       </c>
       <c r="D15" t="n">
-        <v>0.411131624780866</v>
+        <v>0.395547682484335</v>
       </c>
       <c r="E15" t="n">
-        <v>0.478902466337572</v>
+        <v>0.479972662944145</v>
       </c>
       <c r="F15" t="n">
-        <v>0.452094616253507</v>
+        <v>0.459974307335046</v>
       </c>
       <c r="G15" t="n">
-        <v>0.497251851173417</v>
+        <v>0.496319027167194</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_positive.xlsx
+++ b/xlsx/country_comparison/support_positive.xlsx
@@ -50,31 +50,38 @@
     <t xml:space="preserve">National tax on millionaires</t>
   </si>
   <si>
-    <t xml:space="preserve">Payments from high-income countries to compensate low-income countries for climate damages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries funding renewable energy in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries contributing $100 billion per year to help low-income countries adapt to climate change</t>
+    <t xml:space="preserve">Payments from high-income countries to compensate
+low-income countries for climate damages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries funding renewable
+energy in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries contributing $100 billion per year
+to help low-income countries adapt to climate change</t>
   </si>
   <si>
     <t xml:space="preserve">Cancellation of low-income countries' public debt</t>
   </si>
   <si>
-    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making a country's voting right proportional to its population</t>
+    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making
+a country's voting right proportional to its population</t>
   </si>
   <si>
     <t xml:space="preserve">Removing tariffs on imports from low-income countries</t>
   </si>
   <si>
-    <t xml:space="preserve">A minimum wage in all countries at 50% of local median wage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU) for each human</t>
+    <t xml:space="preserve">A minimum wage in all countries
+at 50% of local median wage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fight tax evasion by creating a global financial
+register to record ownership of all assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion
+(US) / €100 million (Eu) for each human</t>
   </si>
 </sst>
 </file>
@@ -434,22 +441,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.541940293813814</v>
+        <v>0.527972736493319</v>
       </c>
       <c r="C2" t="n">
-        <v>0.757124442969868</v>
+        <v>0.757320866764204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.80287801319803</v>
+        <v>0.802845995450502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.71266432814077</v>
+        <v>0.712681465751731</v>
       </c>
       <c r="F2" t="n">
-        <v>0.814181202537546</v>
+        <v>0.809917713113721</v>
       </c>
       <c r="G2" t="n">
-        <v>0.741093867939918</v>
+        <v>0.74106127773703</v>
       </c>
     </row>
     <row r="3">
@@ -457,22 +464,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.558336087713609</v>
+        <v>0.557518324399071</v>
       </c>
       <c r="C3" t="n">
-        <v>0.72449033939416</v>
+        <v>0.726238536290562</v>
       </c>
       <c r="D3" t="n">
-        <v>0.768838719029281</v>
+        <v>0.768794438370656</v>
       </c>
       <c r="E3" t="n">
-        <v>0.658433214287983</v>
+        <v>0.658435932985819</v>
       </c>
       <c r="F3" t="n">
-        <v>0.79892524528987</v>
+        <v>0.787745433104858</v>
       </c>
       <c r="G3" t="n">
-        <v>0.749406163217863</v>
+        <v>0.749378737165197</v>
       </c>
     </row>
     <row r="4">
@@ -480,68 +487,68 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.524831536121547</v>
+        <v>0.524870121220232</v>
       </c>
       <c r="C4" t="n">
-        <v>0.734354280876327</v>
+        <v>0.735027761278094</v>
       </c>
       <c r="D4" t="n">
-        <v>0.78880716153296</v>
+        <v>0.788770385854295</v>
       </c>
       <c r="E4" t="n">
-        <v>0.690508694213523</v>
+        <v>0.690510975064862</v>
       </c>
       <c r="F4" t="n">
-        <v>0.808274946990806</v>
+        <v>0.808592285414348</v>
       </c>
       <c r="G4" t="n">
-        <v>0.70345279498556</v>
+        <v>0.703443018587396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="e">
-        <v>#NUM!</v>
+      <c r="B5" t="n">
+        <v>0.58097404887994</v>
       </c>
       <c r="C5" t="n">
-        <v>0.715961277732328</v>
+        <v>0.714793319488843</v>
       </c>
       <c r="D5" t="n">
-        <v>0.694482574423901</v>
+        <v>0.694319177328758</v>
       </c>
       <c r="E5" t="n">
-        <v>0.723279218613323</v>
+        <v>0.723244532725875</v>
       </c>
       <c r="F5" t="n">
-        <v>0.785851391065488</v>
+        <v>0.776824002261202</v>
       </c>
       <c r="G5" t="n">
-        <v>0.709001834379532</v>
+        <v>0.708989998773392</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="e">
-        <v>#NUM!</v>
+      <c r="B6" t="n">
+        <v>0.619576204238963</v>
       </c>
       <c r="C6" t="n">
-        <v>0.759150920107372</v>
+        <v>0.758375208534753</v>
       </c>
       <c r="D6" t="n">
-        <v>0.697663108722282</v>
+        <v>0.697490019207693</v>
       </c>
       <c r="E6" t="n">
-        <v>0.785647442557876</v>
+        <v>0.785605734377313</v>
       </c>
       <c r="F6" t="n">
-        <v>0.796933073124514</v>
+        <v>0.788109233298969</v>
       </c>
       <c r="G6" t="n">
-        <v>0.774027992401229</v>
+        <v>0.774030617727549</v>
       </c>
     </row>
     <row r="7">
@@ -549,22 +556,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.409060764527737</v>
+        <v>0.409115351906478</v>
       </c>
       <c r="C7" t="n">
-        <v>0.535201948047178</v>
+        <v>0.535873014459192</v>
       </c>
       <c r="D7" t="n">
-        <v>0.522159530315475</v>
+        <v>0.522108726136302</v>
       </c>
       <c r="E7" t="n">
-        <v>0.528762735872641</v>
+        <v>0.528761543405907</v>
       </c>
       <c r="F7" t="n">
-        <v>0.617643301268689</v>
+        <v>0.619349694288149</v>
       </c>
       <c r="G7" t="n">
-        <v>0.510176392524896</v>
+        <v>0.510164860189199</v>
       </c>
     </row>
     <row r="8">
@@ -572,22 +579,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.530786230623006</v>
+        <v>0.530814200731826</v>
       </c>
       <c r="C8" t="n">
-        <v>0.646986940154306</v>
+        <v>0.646086050975591</v>
       </c>
       <c r="D8" t="n">
-        <v>0.617674491099532</v>
+        <v>0.617631776703308</v>
       </c>
       <c r="E8" t="n">
-        <v>0.661975627869348</v>
+        <v>0.661981009518735</v>
       </c>
       <c r="F8" t="n">
-        <v>0.703166680556518</v>
+        <v>0.679241918379181</v>
       </c>
       <c r="G8" t="n">
-        <v>0.62419401179039</v>
+        <v>0.624160044931323</v>
       </c>
     </row>
     <row r="9">
@@ -595,22 +602,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.450078889275541</v>
+        <v>0.45011341124838</v>
       </c>
       <c r="C9" t="n">
-        <v>0.578816210447086</v>
+        <v>0.580303842050924</v>
       </c>
       <c r="D9" t="n">
-        <v>0.554897120617185</v>
+        <v>0.554844714670846</v>
       </c>
       <c r="E9" t="n">
-        <v>0.597865813650494</v>
+        <v>0.597860385545241</v>
       </c>
       <c r="F9" t="n">
-        <v>0.619412843914247</v>
+        <v>0.624386789670735</v>
       </c>
       <c r="G9" t="n">
-        <v>0.540918245199244</v>
+        <v>0.54091224731223</v>
       </c>
     </row>
     <row r="10">
@@ -618,22 +625,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.308263974627297</v>
+        <v>0.308391082895318</v>
       </c>
       <c r="C10" t="n">
-        <v>0.367753929241678</v>
+        <v>0.365731640324952</v>
       </c>
       <c r="D10" t="n">
-        <v>0.363070549590102</v>
+        <v>0.362994387715357</v>
       </c>
       <c r="E10" t="n">
-        <v>0.298636471394347</v>
+        <v>0.298641910128985</v>
       </c>
       <c r="F10" t="n">
-        <v>0.450760261067972</v>
+        <v>0.450925576392201</v>
       </c>
       <c r="G10" t="n">
-        <v>0.404827258873017</v>
+        <v>0.404799933538172</v>
       </c>
     </row>
     <row r="11">
@@ -641,22 +648,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.343995473719487</v>
+        <v>0.344105383530252</v>
       </c>
       <c r="C11" t="n">
-        <v>0.44529348181459</v>
+        <v>0.443594773467438</v>
       </c>
       <c r="D11" t="n">
-        <v>0.436195016223653</v>
+        <v>0.436219325369461</v>
       </c>
       <c r="E11" t="n">
-        <v>0.428387525176064</v>
+        <v>0.428402025624624</v>
       </c>
       <c r="F11" t="n">
-        <v>0.519693039047335</v>
+        <v>0.517519698549576</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4322000098325</v>
+        <v>0.432189204736391</v>
       </c>
     </row>
     <row r="12">
@@ -664,22 +671,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.39042778352406</v>
+        <v>0.390484602243659</v>
       </c>
       <c r="C12" t="n">
-        <v>0.492288437057659</v>
+        <v>0.49094991581821</v>
       </c>
       <c r="D12" t="n">
-        <v>0.386250992315757</v>
+        <v>0.386302468418039</v>
       </c>
       <c r="E12" t="n">
-        <v>0.512608538780923</v>
+        <v>0.512592712201629</v>
       </c>
       <c r="F12" t="n">
-        <v>0.512559236702742</v>
+        <v>0.502893401333253</v>
       </c>
       <c r="G12" t="n">
-        <v>0.540724036944967</v>
+        <v>0.540728143603005</v>
       </c>
     </row>
     <row r="13">
@@ -687,22 +694,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.415328882814305</v>
+        <v>0.415360140801995</v>
       </c>
       <c r="C13" t="n">
-        <v>0.550354209283569</v>
+        <v>0.547947048183082</v>
       </c>
       <c r="D13" t="n">
-        <v>0.541748120019898</v>
+        <v>0.541679032092289</v>
       </c>
       <c r="E13" t="n">
-        <v>0.542108788452825</v>
+        <v>0.542087544034292</v>
       </c>
       <c r="F13" t="n">
-        <v>0.609268371100752</v>
+        <v>0.60768384976524</v>
       </c>
       <c r="G13" t="n">
-        <v>0.531662747059825</v>
+        <v>0.531644320070783</v>
       </c>
     </row>
     <row r="14">
@@ -710,22 +717,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0.441433541510217</v>
+        <v>0.44148547521565</v>
       </c>
       <c r="C14" t="n">
-        <v>0.701089412680031</v>
+        <v>0.699336514515305</v>
       </c>
       <c r="D14" t="n">
-        <v>0.730207595707015</v>
+        <v>0.730152208937297</v>
       </c>
       <c r="E14" t="n">
-        <v>0.702460186820164</v>
+        <v>0.702462385725501</v>
       </c>
       <c r="F14" t="n">
-        <v>0.723293610150671</v>
+        <v>0.718628182752579</v>
       </c>
       <c r="G14" t="n">
-        <v>0.649070260943073</v>
+        <v>0.6490870831924</v>
       </c>
     </row>
     <row r="15">
@@ -733,22 +740,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0.335805912734162</v>
+        <v>0.335948883448662</v>
       </c>
       <c r="C15" t="n">
-        <v>0.45625455264978</v>
+        <v>0.45314379468064</v>
       </c>
       <c r="D15" t="n">
-        <v>0.395547682484335</v>
+        <v>0.395498925733041</v>
       </c>
       <c r="E15" t="n">
-        <v>0.479972662944145</v>
+        <v>0.479942664267705</v>
       </c>
       <c r="F15" t="n">
-        <v>0.459974307335046</v>
+        <v>0.441371326747748</v>
       </c>
       <c r="G15" t="n">
-        <v>0.496319027167194</v>
+        <v>0.496306674811346</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_positive.xlsx
+++ b/xlsx/country_comparison/support_positive.xlsx
@@ -50,38 +50,31 @@
     <t xml:space="preserve">National tax on millionaires</t>
   </si>
   <si>
-    <t xml:space="preserve">Payments from high-income countries to compensate
-low-income countries for climate damages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries funding renewable
-energy in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries contributing $100 billion per year
-to help low-income countries adapt to climate change</t>
+    <t xml:space="preserve">Payments from high-income countries to compensate low-income countries for climate damages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries funding renewable energy in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries contributing $100 billion per year to help low-income countries adapt to climate change</t>
   </si>
   <si>
     <t xml:space="preserve">Cancellation of low-income countries' public debt</t>
   </si>
   <si>
-    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making
-a country's voting right proportional to its population</t>
+    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making a country's voting right proportional to its population</t>
   </si>
   <si>
     <t xml:space="preserve">Removing tariffs on imports from low-income countries</t>
   </si>
   <si>
-    <t xml:space="preserve">A minimum wage in all countries
-at 50% of local median wage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fight tax evasion by creating a global financial
-register to record ownership of all assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion
-(US) / €100 million (Eu) for each human</t>
+    <t xml:space="preserve">A minimum wage in all countries at 50% of local median wage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU) for each human</t>
   </si>
 </sst>
 </file>
